--- a/students.xlsx
+++ b/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\MS EXCELL FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04F1286-F0BB-4D7B-AFE2-06288875BE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6A5EAD-C37A-4FBD-9D78-C809501F1E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7671A376-4A2D-4D78-89DF-5A71A798E652}"/>
   </bookViews>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
-  <si>
-    <t>TOTAL MARK</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>GRADE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t xml:space="preserve">ABHISHEK </t>
   </si>
@@ -157,9 +139,6 @@
   </si>
   <si>
     <t>SAMANTHA</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
   <si>
     <r>
@@ -763,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC976477-7451-48AD-86FE-7FE431A5CA04}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -797,54 +776,40 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>87</v>
@@ -861,40 +826,20 @@
       <c r="G3" s="1">
         <v>89</v>
       </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I38" si="0">SUM(C3:G3)</f>
-        <v>362</v>
-      </c>
-      <c r="J3" s="1">
-        <f>MIN(C3:G3)</f>
-        <v>45</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K38" si="1">MAX(C3:G3)</f>
-        <v>89</v>
-      </c>
-      <c r="L3" s="2">
-        <f>AVERAGE(C3:G3)</f>
-        <v>72.400000000000006</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f>IF(AND(C3&gt;=35,D3&gt;=35,G3&gt;=35),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f>IF(M3="FAIL","FAIL",IF(L3&gt;=80,"A+",IF(L3&gt;=70,"A",IF(L3&gt;=60,"B+",IF(L3&gt;=50,"B",IF(L3&gt;=45,"C+",IF(L3&gt;=40,"C",IF(L3&gt;=35,"D"))))))))</f>
-        <v>A</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>89</v>
@@ -911,40 +856,20 @@
       <c r="G4" s="1">
         <v>75</v>
       </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>301</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">MIN(C4:G4)</f>
-        <v>36</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L38" si="3">AVERAGE(C4:G4)</f>
-        <v>60.2</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f t="shared" ref="M4:M38" si="4">IF(AND(C4&gt;=35,D4&gt;=35,G4&gt;=35),"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N38" si="5">IF(M4="FAIL","FAIL",IF(L4&gt;=80,"A+",IF(L4&gt;=70,"A",IF(L4&gt;=60,"B+",IF(L4&gt;=50,"B",IF(L4&gt;=45,"C+",IF(L4&gt;=40,"C",IF(L4&gt;=35,"D"))))))))</f>
-        <v>B+</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>56</v>
@@ -961,40 +886,20 @@
       <c r="G5" s="1">
         <v>45</v>
       </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>278</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="3"/>
-        <v>55.6</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -1011,40 +916,20 @@
       <c r="G6" s="1">
         <v>85</v>
       </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>48.4</v>
-      </c>
-      <c r="M6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>36</v>
@@ -1061,40 +946,20 @@
       <c r="G7" s="1">
         <v>90</v>
       </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="3"/>
-        <v>41.6</v>
-      </c>
-      <c r="M7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>65</v>
@@ -1111,40 +976,20 @@
       <c r="G8" s="1">
         <v>45</v>
       </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>309</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="3"/>
-        <v>61.8</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>54</v>
@@ -1161,40 +1006,20 @@
       <c r="G9" s="1">
         <v>54</v>
       </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="M9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>45</v>
@@ -1211,40 +1036,20 @@
       <c r="G10" s="1">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="3"/>
-        <v>44.2</v>
-      </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>69</v>
@@ -1261,40 +1066,20 @@
       <c r="G11" s="1">
         <v>45</v>
       </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="3"/>
-        <v>46.8</v>
-      </c>
-      <c r="M11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>70</v>
@@ -1311,40 +1096,20 @@
       <c r="G12" s="1">
         <v>45</v>
       </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="0"/>
-        <v>319</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="3"/>
-        <v>63.8</v>
-      </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>56</v>
@@ -1361,40 +1126,20 @@
       <c r="G13" s="1">
         <v>35</v>
       </c>
-      <c r="H13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="M13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>35</v>
@@ -1411,40 +1156,20 @@
       <c r="G14" s="1">
         <v>36</v>
       </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>54</v>
@@ -1461,40 +1186,20 @@
       <c r="G15" s="1">
         <v>32</v>
       </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="3"/>
-        <v>72.2</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>78</v>
@@ -1511,40 +1216,20 @@
       <c r="G16" s="1">
         <v>69</v>
       </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>326</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>65.2</v>
-      </c>
-      <c r="M16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>98</v>
@@ -1561,40 +1246,20 @@
       <c r="G17" s="1">
         <v>68</v>
       </c>
-      <c r="H17" s="1">
-        <v>5</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>326</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="3"/>
-        <v>65.2</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>35</v>
@@ -1611,40 +1276,20 @@
       <c r="G18" s="1">
         <v>65</v>
       </c>
-      <c r="H18" s="1">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="3"/>
-        <v>49.6</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C+</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1661,40 +1306,20 @@
       <c r="G19" s="1">
         <v>32</v>
       </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="3"/>
-        <v>49.8</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>31</v>
@@ -1711,40 +1336,20 @@
       <c r="G20" s="1">
         <v>36</v>
       </c>
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="0"/>
-        <v>277</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="3"/>
-        <v>55.4</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>24</v>
@@ -1761,40 +1366,20 @@
       <c r="G21" s="1">
         <v>32</v>
       </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
@@ -1811,40 +1396,20 @@
       <c r="G22" s="1">
         <v>23</v>
       </c>
-      <c r="H22" s="1">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
         <v>69</v>
@@ -1861,40 +1426,20 @@
       <c r="G23" s="1">
         <v>36</v>
       </c>
-      <c r="H23" s="1">
-        <v>5</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>318</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="3"/>
-        <v>63.6</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
         <v>32</v>
@@ -1911,40 +1456,20 @@
       <c r="G24" s="1">
         <v>32</v>
       </c>
-      <c r="H24" s="1">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="3"/>
-        <v>52.8</v>
-      </c>
-      <c r="M24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>65</v>
@@ -1961,40 +1486,20 @@
       <c r="G25" s="1">
         <v>36</v>
       </c>
-      <c r="H25" s="1">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="M25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B</v>
-      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>98</v>
@@ -2011,40 +1516,20 @@
       <c r="G26" s="1">
         <v>36</v>
       </c>
-      <c r="H26" s="1">
-        <v>5</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="3"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="M26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>65</v>
@@ -2061,40 +1546,20 @@
       <c r="G27" s="1">
         <v>32</v>
       </c>
-      <c r="H27" s="1">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="M27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
         <v>45</v>
@@ -2111,40 +1576,20 @@
       <c r="G28" s="1">
         <v>36</v>
       </c>
-      <c r="H28" s="1">
-        <v>5</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="3"/>
-        <v>37.6</v>
-      </c>
-      <c r="M28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>65</v>
@@ -2161,40 +1606,20 @@
       <c r="G29" s="1">
         <v>65</v>
       </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="3"/>
-        <v>65.400000000000006</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
         <v>54</v>
@@ -2211,40 +1636,20 @@
       <c r="G30" s="1">
         <v>98</v>
       </c>
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="3"/>
-        <v>54.8</v>
-      </c>
-      <c r="M30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <v>87</v>
@@ -2261,40 +1666,20 @@
       <c r="G31" s="1">
         <v>54</v>
       </c>
-      <c r="H31" s="1">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>314</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="3"/>
-        <v>62.8</v>
-      </c>
-      <c r="M31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>98</v>
@@ -2311,40 +1696,20 @@
       <c r="G32" s="1">
         <v>65</v>
       </c>
-      <c r="H32" s="1">
-        <v>5</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>289</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="3"/>
-        <v>57.8</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>78</v>
@@ -2361,40 +1726,20 @@
       <c r="G33" s="1">
         <v>98</v>
       </c>
-      <c r="H33" s="1">
-        <v>5</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="3"/>
-        <v>69.400000000000006</v>
-      </c>
-      <c r="M33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>79</v>
@@ -2411,40 +1756,20 @@
       <c r="G34" s="1">
         <v>78</v>
       </c>
-      <c r="H34" s="1">
-        <v>5</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="M34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PASS</v>
-      </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>B+</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>25</v>
@@ -2461,40 +1786,20 @@
       <c r="G35" s="1">
         <v>45</v>
       </c>
-      <c r="H35" s="1">
-        <v>5</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="3"/>
-        <v>49.6</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>18</v>
@@ -2511,40 +1816,20 @@
       <c r="G36" s="1">
         <v>69</v>
       </c>
-      <c r="H36" s="1">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="3"/>
-        <v>39.200000000000003</v>
-      </c>
-      <c r="M36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
         <v>26</v>
@@ -2561,40 +1846,20 @@
       <c r="G37" s="1">
         <v>32</v>
       </c>
-      <c r="H37" s="1">
-        <v>5</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1">
         <v>39</v>
@@ -2611,33 +1876,13 @@
       <c r="G38" s="1">
         <v>12</v>
       </c>
-      <c r="H38" s="1">
-        <v>5</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>44.2</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>FAIL</v>
-      </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>FAIL</v>
-      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B38">

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6A5EAD-C37A-4FBD-9D78-C809501F1E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846ADD3-E90A-40C8-A3CB-2CBDD1835002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7671A376-4A2D-4D78-89DF-5A71A798E652}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
-  <si>
-    <t xml:space="preserve">ABHISHEK </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>RADHA</t>
   </si>
@@ -141,28 +138,6 @@
     <t>SAMANTHA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="26"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TAKSHALA  UNIVERSITY KOLKATA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>21234C04001</t>
   </si>
   <si>
@@ -283,37 +258,26 @@
     <t>Science</t>
   </si>
   <si>
-    <t>Social-Science</t>
-  </si>
-  <si>
     <t>RollNo</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Deo</t>
+  </si>
+  <si>
+    <t>Social Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,21 +289,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -362,48 +320,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,15 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC976477-7451-48AD-86FE-7FE431A5CA04}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,80 +663,92 @@
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
         <v>78</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
+      <c r="G2" s="1">
+        <v>89</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>87</v>
-      </c>
-      <c r="D3" s="1">
-        <v>63</v>
-      </c>
       <c r="E3" s="1">
         <v>45</v>
       </c>
       <c r="F3" s="1">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -836,25 +760,25 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -866,25 +790,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
         <v>56</v>
       </c>
-      <c r="D5" s="1">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>58</v>
-      </c>
       <c r="F5" s="1">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -896,25 +820,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -926,25 +850,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -956,25 +880,25 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -986,25 +910,25 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1">
         <v>54</v>
       </c>
-      <c r="D9" s="1">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1">
-        <v>65</v>
-      </c>
       <c r="G9" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1016,25 +940,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1046,22 +970,22 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1">
         <v>45</v>
@@ -1076,25 +1000,25 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1106,25 +1030,25 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
         <v>45</v>
       </c>
       <c r="F13" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1136,25 +1060,25 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1166,25 +1090,25 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1196,25 +1120,25 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1226,25 +1150,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1256,25 +1180,25 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1286,25 +1210,25 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1316,25 +1240,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1346,25 +1270,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1376,25 +1300,25 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
         <v>32</v>
       </c>
-      <c r="C22" s="1">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
       <c r="E22" s="1">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G22" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1406,25 +1330,25 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>65</v>
+      </c>
+      <c r="G23" s="1">
         <v>32</v>
-      </c>
-      <c r="E23" s="1">
-        <v>94</v>
-      </c>
-      <c r="F23" s="1">
-        <v>87</v>
-      </c>
-      <c r="G23" s="1">
-        <v>36</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1436,25 +1360,25 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1">
         <v>36</v>
-      </c>
-      <c r="E24" s="1">
-        <v>99</v>
-      </c>
-      <c r="F24" s="1">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1">
-        <v>32</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1466,22 +1390,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1">
         <v>36</v>
@@ -1496,25 +1420,25 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
         <v>32</v>
-      </c>
-      <c r="G26" s="1">
-        <v>36</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1526,25 +1450,25 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G27" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1556,25 +1480,25 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G28" s="1">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1586,25 +1510,25 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1616,25 +1540,25 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1">
+        <v>96</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1">
         <v>54</v>
-      </c>
-      <c r="D30" s="1">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1">
-        <v>45</v>
-      </c>
-      <c r="G30" s="1">
-        <v>98</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1646,25 +1570,25 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G31" s="1">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1676,25 +1600,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1">
+        <v>94</v>
+      </c>
+      <c r="G32" s="1">
         <v>98</v>
-      </c>
-      <c r="D32" s="1">
-        <v>21</v>
-      </c>
-      <c r="E32" s="1">
-        <v>56</v>
-      </c>
-      <c r="F32" s="1">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1">
-        <v>65</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1706,25 +1630,25 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1">
+        <v>67</v>
+      </c>
+      <c r="G33" s="1">
         <v>78</v>
-      </c>
-      <c r="D33" s="1">
-        <v>54</v>
-      </c>
-      <c r="E33" s="1">
-        <v>23</v>
-      </c>
-      <c r="F33" s="1">
-        <v>94</v>
-      </c>
-      <c r="G33" s="1">
-        <v>98</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1736,25 +1660,25 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G34" s="1">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1766,25 +1690,25 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1">
-        <v>25</v>
-      </c>
-      <c r="E35" s="1">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1">
-        <v>75</v>
-      </c>
       <c r="G35" s="1">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1796,25 +1720,25 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1">
         <v>23</v>
       </c>
-      <c r="F36" s="1">
-        <v>68</v>
-      </c>
       <c r="G36" s="1">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1826,25 +1750,25 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1854,44 +1778,11 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="1">
-        <v>39</v>
-      </c>
-      <c r="D38" s="1">
-        <v>45</v>
-      </c>
-      <c r="E38" s="1">
-        <v>80</v>
-      </c>
-      <c r="F38" s="1">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B38">
-    <sortCondition ref="B3:B38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B37">
+    <sortCondition ref="B2:B37"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846ADD3-E90A-40C8-A3CB-2CBDD1835002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85990544-B19F-4374-8D8F-439DE3808F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7671A376-4A2D-4D78-89DF-5A71A798E652}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>RADHA</t>
   </si>
@@ -268,13 +268,34 @@
   </si>
   <si>
     <t>Social Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Percetage</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>FatherName</t>
+  </si>
+  <si>
+    <t>Mr.Deo</t>
+  </si>
+  <si>
+    <t>akhil@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +305,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,8 +368,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC976477-7451-48AD-86FE-7FE431A5CA04}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,7 +698,10 @@
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -690,10 +727,18 @@
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -720,10 +765,19 @@
       <c r="G2" s="1">
         <v>89</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="1">
+        <v>362</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(C2:G2)</f>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -750,10 +804,20 @@
       <c r="G3" s="1">
         <v>75</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H37" si="0">SUM(C3:G3)</f>
+        <v>301</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I37" si="1">AVERAGE(C3:G3)</f>
+        <v>60.2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -780,10 +844,20 @@
       <c r="G4" s="1">
         <v>45</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -810,10 +884,20 @@
       <c r="G5" s="1">
         <v>85</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>48.4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -840,10 +924,20 @@
       <c r="G6" s="1">
         <v>90</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>41.6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -870,10 +964,20 @@
       <c r="G7" s="1">
         <v>45</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>61.8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -900,10 +1004,20 @@
       <c r="G8" s="1">
         <v>54</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -930,10 +1044,20 @@
       <c r="G9" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -960,10 +1084,20 @@
       <c r="G10" s="1">
         <v>45</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>46.8</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -990,10 +1124,20 @@
       <c r="G11" s="1">
         <v>45</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>63.8</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1020,10 +1164,20 @@
       <c r="G12" s="1">
         <v>35</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1050,10 +1204,20 @@
       <c r="G13" s="1">
         <v>36</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1080,10 +1244,20 @@
       <c r="G14" s="1">
         <v>32</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>72.2</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1110,10 +1284,20 @@
       <c r="G15" s="1">
         <v>69</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1140,10 +1324,20 @@
       <c r="G16" s="1">
         <v>68</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1170,10 +1364,20 @@
       <c r="G17" s="1">
         <v>65</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>49.6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1200,10 +1404,20 @@
       <c r="G18" s="1">
         <v>32</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>49.8</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1230,10 +1444,20 @@
       <c r="G19" s="1">
         <v>36</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>55.4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1260,10 +1484,20 @@
       <c r="G20" s="1">
         <v>32</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1290,10 +1524,20 @@
       <c r="G21" s="1">
         <v>23</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1320,10 +1564,20 @@
       <c r="G22" s="1">
         <v>36</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>63.6</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1350,10 +1604,20 @@
       <c r="G23" s="1">
         <v>32</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>52.8</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1380,10 +1644,20 @@
       <c r="G24" s="1">
         <v>36</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1410,10 +1684,20 @@
       <c r="G25" s="1">
         <v>36</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1440,10 +1724,20 @@
       <c r="G26" s="1">
         <v>32</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1470,10 +1764,20 @@
       <c r="G27" s="1">
         <v>36</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>37.6</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1500,10 +1804,20 @@
       <c r="G28" s="1">
         <v>65</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1530,10 +1844,20 @@
       <c r="G29" s="1">
         <v>98</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>54.8</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1560,10 +1884,20 @@
       <c r="G30" s="1">
         <v>54</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>62.8</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1590,10 +1924,20 @@
       <c r="G31" s="1">
         <v>65</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>57.8</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1620,10 +1964,20 @@
       <c r="G32" s="1">
         <v>98</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1650,10 +2004,20 @@
       <c r="G33" s="1">
         <v>78</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1680,10 +2044,20 @@
       <c r="G34" s="1">
         <v>45</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>49.6</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1710,10 +2084,20 @@
       <c r="G35" s="1">
         <v>69</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1740,10 +2124,20 @@
       <c r="G36" s="1">
         <v>32</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1770,10 +2164,20 @@
       <c r="G37" s="1">
         <v>12</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1783,7 +2187,12 @@
     <sortCondition ref="B2:B37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{595E50F3-FA1A-494B-9AD8-5EDB5C5F81C9}"/>
+    <hyperlink ref="J3:J37" r:id="rId2" display="john@example.com" xr:uid="{F8007D51-E5E0-4734-BA59-BC67CA98B167}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{B6E790B8-F145-417F-A7D1-9114845E1E4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995AFC71-2552-487F-9569-A3DC4E193C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,9 +54,6 @@
     <t>Social Science</t>
   </si>
   <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
     <t>Percetage</t>
   </si>
   <si>
@@ -269,14 +283,19 @@
   </si>
   <si>
     <t>TINKU</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0&quot;%&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +315,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,47 +356,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,10 +415,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -422,71 +456,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +548,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -537,11 +571,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -550,13 +584,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +600,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -575,7 +609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -592,10 +626,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -660,33 +694,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,27 +742,27 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>87</v>
@@ -749,25 +782,26 @@
       <c r="H2" s="2">
         <v>362</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="10">
         <f>AVERAGE(C2:G2)</f>
+        <v>72.400000000000006</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>89</v>
@@ -785,27 +819,29 @@
         <v>75</v>
       </c>
       <c r="H3" s="2">
-        <f>SUM(C3:G3)</f>
-      </c>
-      <c r="I3" s="3">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" ref="H3:H37" si="0">SUM(C3:G3)</f>
+        <v>301</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I37" si="1">AVERAGE(C3:G3)</f>
+        <v>60.2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>56</v>
@@ -823,27 +859,29 @@
         <v>45</v>
       </c>
       <c r="H4" s="2">
-        <f>SUM(C4:G4)</f>
-      </c>
-      <c r="I4" s="3">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="1"/>
+        <v>55.6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -861,27 +899,29 @@
         <v>85</v>
       </c>
       <c r="H5" s="2">
-        <f>SUM(C5:G5)</f>
-      </c>
-      <c r="I5" s="3">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
+        <v>48.4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>36</v>
@@ -899,27 +939,29 @@
         <v>90</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(C6:G6)</f>
-      </c>
-      <c r="I6" s="3">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>41.6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>65</v>
@@ -937,27 +979,29 @@
         <v>45</v>
       </c>
       <c r="H7" s="2">
-        <f>SUM(C7:G7)</f>
-      </c>
-      <c r="I7" s="3">
-        <f>AVERAGE(C7:G7)</f>
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="1"/>
+        <v>61.8</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>54</v>
@@ -975,27 +1019,29 @@
         <v>54</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(C8:G8)</f>
-      </c>
-      <c r="I8" s="2">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>45</v>
@@ -1013,27 +1059,29 @@
         <v>12</v>
       </c>
       <c r="H9" s="2">
-        <f>SUM(C9:G9)</f>
-      </c>
-      <c r="I9" s="3">
-        <f>AVERAGE(C9:G9)</f>
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>69</v>
@@ -1051,27 +1099,29 @@
         <v>45</v>
       </c>
       <c r="H10" s="2">
-        <f>SUM(C10:G10)</f>
-      </c>
-      <c r="I10" s="3">
-        <f>AVERAGE(C10:G10)</f>
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>46.8</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>70</v>
@@ -1089,27 +1139,29 @@
         <v>45</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(C11:G11)</f>
-      </c>
-      <c r="I11" s="3">
-        <f>AVERAGE(C11:G11)</f>
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>63.8</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>56</v>
@@ -1127,27 +1179,29 @@
         <v>35</v>
       </c>
       <c r="H12" s="2">
-        <f>SUM(C12:G12)</f>
-      </c>
-      <c r="I12" s="2">
-        <f>AVERAGE(C12:G12)</f>
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>51</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -1165,27 +1219,29 @@
         <v>36</v>
       </c>
       <c r="H13" s="2">
-        <f>SUM(C13:G13)</f>
-      </c>
-      <c r="I13" s="2">
-        <f>AVERAGE(C13:G13)</f>
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>54</v>
@@ -1203,27 +1259,29 @@
         <v>32</v>
       </c>
       <c r="H14" s="2">
-        <f>SUM(C14:G14)</f>
-      </c>
-      <c r="I14" s="3">
-        <f>AVERAGE(C14:G14)</f>
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>72.2</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>78</v>
@@ -1241,27 +1299,29 @@
         <v>69</v>
       </c>
       <c r="H15" s="2">
-        <f>SUM(C15:G15)</f>
-      </c>
-      <c r="I15" s="3">
-        <f>AVERAGE(C15:G15)</f>
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>98</v>
@@ -1279,27 +1339,29 @@
         <v>68</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(C16:G16)</f>
-      </c>
-      <c r="I16" s="3">
-        <f>AVERAGE(C16:G16)</f>
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>35</v>
@@ -1317,27 +1379,29 @@
         <v>65</v>
       </c>
       <c r="H17" s="2">
-        <f>SUM(C17:G17)</f>
-      </c>
-      <c r="I17" s="3">
-        <f>AVERAGE(C17:G17)</f>
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>49.6</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>62</v>
@@ -1355,27 +1419,29 @@
         <v>32</v>
       </c>
       <c r="H18" s="2">
-        <f>SUM(C18:G18)</f>
-      </c>
-      <c r="I18" s="3">
-        <f>AVERAGE(C18:G18)</f>
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>49.8</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>31</v>
@@ -1393,27 +1459,29 @@
         <v>36</v>
       </c>
       <c r="H19" s="2">
-        <f>SUM(C19:G19)</f>
-      </c>
-      <c r="I19" s="3">
-        <f>AVERAGE(C19:G19)</f>
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>55.4</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1431,27 +1499,29 @@
         <v>32</v>
       </c>
       <c r="H20" s="2">
-        <f>SUM(C20:G20)</f>
-      </c>
-      <c r="I20" s="2">
-        <f>AVERAGE(C20:G20)</f>
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="2">
         <v>28</v>
@@ -1469,27 +1539,29 @@
         <v>23</v>
       </c>
       <c r="H21" s="2">
-        <f>SUM(C21:G21)</f>
-      </c>
-      <c r="I21" s="2">
-        <f>AVERAGE(C21:G21)</f>
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="2">
         <v>69</v>
@@ -1507,27 +1579,29 @@
         <v>36</v>
       </c>
       <c r="H22" s="2">
-        <f>SUM(C22:G22)</f>
-      </c>
-      <c r="I22" s="3">
-        <f>AVERAGE(C22:G22)</f>
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>63.6</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C23" s="2">
         <v>32</v>
@@ -1545,27 +1619,29 @@
         <v>32</v>
       </c>
       <c r="H23" s="2">
-        <f>SUM(C23:G23)</f>
-      </c>
-      <c r="I23" s="3">
-        <f>AVERAGE(C23:G23)</f>
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>52.8</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="2">
         <v>65</v>
@@ -1583,27 +1659,29 @@
         <v>36</v>
       </c>
       <c r="H24" s="2">
-        <f>SUM(C24:G24)</f>
-      </c>
-      <c r="I24" s="2">
-        <f>AVERAGE(C24:G24)</f>
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C25" s="2">
         <v>98</v>
@@ -1621,27 +1699,29 @@
         <v>36</v>
       </c>
       <c r="H25" s="2">
-        <f>SUM(C25:G25)</f>
-      </c>
-      <c r="I25" s="3">
-        <f>AVERAGE(C25:G25)</f>
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C26" s="2">
         <v>65</v>
@@ -1659,27 +1739,29 @@
         <v>32</v>
       </c>
       <c r="H26" s="2">
-        <f>SUM(C26:G26)</f>
-      </c>
-      <c r="I26" s="2">
-        <f>AVERAGE(C26:G26)</f>
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C27" s="2">
         <v>45</v>
@@ -1697,27 +1779,29 @@
         <v>36</v>
       </c>
       <c r="H27" s="2">
-        <f>SUM(C27:G27)</f>
-      </c>
-      <c r="I27" s="3">
-        <f>AVERAGE(C27:G27)</f>
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
+        <v>37.6</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C28" s="2">
         <v>65</v>
@@ -1735,27 +1819,29 @@
         <v>65</v>
       </c>
       <c r="H28" s="2">
-        <f>SUM(C28:G28)</f>
-      </c>
-      <c r="I28" s="3">
-        <f>AVERAGE(C28:G28)</f>
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="1"/>
+        <v>65.400000000000006</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C29" s="2">
         <v>54</v>
@@ -1773,27 +1859,29 @@
         <v>98</v>
       </c>
       <c r="H29" s="2">
-        <f>SUM(C29:G29)</f>
-      </c>
-      <c r="I29" s="3">
-        <f>AVERAGE(C29:G29)</f>
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="1"/>
+        <v>54.8</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C30" s="2">
         <v>87</v>
@@ -1811,27 +1899,29 @@
         <v>54</v>
       </c>
       <c r="H30" s="2">
-        <f>SUM(C30:G30)</f>
-      </c>
-      <c r="I30" s="3">
-        <f>AVERAGE(C30:G30)</f>
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="1"/>
+        <v>62.8</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C31" s="2">
         <v>98</v>
@@ -1849,27 +1939,29 @@
         <v>65</v>
       </c>
       <c r="H31" s="2">
-        <f>SUM(C31:G31)</f>
-      </c>
-      <c r="I31" s="3">
-        <f>AVERAGE(C31:G31)</f>
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="1"/>
+        <v>57.8</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C32" s="2">
         <v>78</v>
@@ -1887,27 +1979,29 @@
         <v>98</v>
       </c>
       <c r="H32" s="2">
-        <f>SUM(C32:G32)</f>
-      </c>
-      <c r="I32" s="3">
-        <f>AVERAGE(C32:G32)</f>
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="1"/>
+        <v>69.400000000000006</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C33" s="2">
         <v>79</v>
@@ -1925,27 +2019,29 @@
         <v>78</v>
       </c>
       <c r="H33" s="2">
-        <f>SUM(C33:G33)</f>
-      </c>
-      <c r="I33" s="2">
-        <f>AVERAGE(C33:G33)</f>
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C34" s="2">
         <v>25</v>
@@ -1963,27 +2059,29 @@
         <v>45</v>
       </c>
       <c r="H34" s="2">
-        <f>SUM(C34:G34)</f>
-      </c>
-      <c r="I34" s="3">
-        <f>AVERAGE(C34:G34)</f>
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
+        <v>49.6</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="2">
         <v>18</v>
@@ -2001,27 +2099,29 @@
         <v>69</v>
       </c>
       <c r="H35" s="2">
-        <f>SUM(C35:G35)</f>
-      </c>
-      <c r="I35" s="3">
-        <f>AVERAGE(C35:G35)</f>
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="1"/>
+        <v>39.200000000000003</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C36" s="2">
         <v>26</v>
@@ -2039,27 +2139,29 @@
         <v>32</v>
       </c>
       <c r="H36" s="2">
-        <f>SUM(C36:G36)</f>
-      </c>
-      <c r="I36" s="2">
-        <f>AVERAGE(C36:G36)</f>
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C37" s="2">
         <v>39</v>
@@ -2077,16 +2179,18 @@
         <v>12</v>
       </c>
       <c r="H37" s="2">
-        <f>SUM(C37:G37)</f>
-      </c>
-      <c r="I37" s="3">
-        <f>AVERAGE(C37:G37)</f>
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="1"/>
+        <v>44.2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995AFC71-2552-487F-9569-A3DC4E193C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE412765-D7F5-4519-B2FF-14AB4AD277F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Social Science</t>
   </si>
   <si>
-    <t>Percetage</t>
-  </si>
-  <si>
     <t>EmailId</t>
   </si>
   <si>
@@ -285,7 +282,10 @@
     <t>TINKU</t>
   </si>
   <si>
-    <t>Total Marks</t>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0&quot;%&quot;"/>
+    <numFmt numFmtId="165" formatCode="00&quot;%&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -701,7 +701,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,13 +745,13 @@
         <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -759,10 +759,10 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>87</v>
@@ -787,10 +787,10 @@
         <v>72.400000000000006</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -798,10 +798,10 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>89</v>
@@ -827,10 +827,10 @@
         <v>60.2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -838,10 +838,10 @@
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>56</v>
@@ -867,10 +867,10 @@
         <v>55.6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
@@ -878,10 +878,10 @@
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -907,10 +907,10 @@
         <v>48.4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>36</v>
@@ -947,10 +947,10 @@
         <v>41.6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -958,10 +958,10 @@
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>65</v>
@@ -987,10 +987,10 @@
         <v>61.8</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
@@ -998,10 +998,10 @@
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>54</v>
@@ -1027,10 +1027,10 @@
         <v>64</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>45</v>
@@ -1067,10 +1067,10 @@
         <v>44.2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>69</v>
@@ -1107,10 +1107,10 @@
         <v>46.8</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>70</v>
@@ -1147,10 +1147,10 @@
         <v>63.8</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>56</v>
@@ -1187,10 +1187,10 @@
         <v>51</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -1227,10 +1227,10 @@
         <v>46</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>54</v>
@@ -1267,10 +1267,10 @@
         <v>72.2</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>78</v>
@@ -1307,10 +1307,10 @@
         <v>65.2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>98</v>
@@ -1347,10 +1347,10 @@
         <v>65.2</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>35</v>
@@ -1387,10 +1387,10 @@
         <v>49.6</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>62</v>
@@ -1427,10 +1427,10 @@
         <v>49.8</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="2">
         <v>31</v>
@@ -1467,10 +1467,10 @@
         <v>55.4</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1507,10 +1507,10 @@
         <v>46</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C21" s="2">
         <v>28</v>
@@ -1547,10 +1547,10 @@
         <v>55</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>69</v>
@@ -1587,10 +1587,10 @@
         <v>63.6</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>32</v>
@@ -1627,10 +1627,10 @@
         <v>52.8</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C24" s="2">
         <v>65</v>
@@ -1667,10 +1667,10 @@
         <v>53</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C25" s="2">
         <v>98</v>
@@ -1707,10 +1707,10 @@
         <v>68.400000000000006</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="2">
         <v>65</v>
@@ -1747,10 +1747,10 @@
         <v>52</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="2">
         <v>45</v>
@@ -1787,10 +1787,10 @@
         <v>37.6</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="2">
         <v>65</v>
@@ -1827,10 +1827,10 @@
         <v>65.400000000000006</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>54</v>
@@ -1867,10 +1867,10 @@
         <v>54.8</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C30" s="2">
         <v>87</v>
@@ -1907,10 +1907,10 @@
         <v>62.8</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C31" s="2">
         <v>98</v>
@@ -1947,10 +1947,10 @@
         <v>57.8</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C32" s="2">
         <v>78</v>
@@ -1987,10 +1987,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="2">
         <v>79</v>
@@ -2027,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="2">
         <v>25</v>
@@ -2067,10 +2067,10 @@
         <v>49.6</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="2">
         <v>18</v>
@@ -2107,10 +2107,10 @@
         <v>39.200000000000003</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="2">
         <v>26</v>
@@ -2147,10 +2147,10 @@
         <v>40</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="2">
         <v>39</v>
@@ -2187,10 +2187,10 @@
         <v>44.2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE412765-D7F5-4519-B2FF-14AB4AD277F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7451E-8444-4B35-B80F-4ACFFBDC03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>RollNo</t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve"> John Deo</t>
   </si>
   <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
     <t>Mr.Deo</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>AKHIL</t>
   </si>
   <si>
-    <t>akhil@gmail.com</t>
-  </si>
-  <si>
     <t>21234C04003</t>
   </si>
   <si>
@@ -286,6 +280,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ramchouhan@gmail.com</t>
+  </si>
+  <si>
+    <t>abhishekchouhan7646@gmail.com</t>
+  </si>
+  <si>
+    <t>shayamchouhan324@gmail.com</t>
+  </si>
+  <si>
+    <t>shayamchouhan3456@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -310,15 +316,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,9 +363,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -372,9 +380,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,8 +397,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -700,23 +709,23 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -742,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
@@ -782,15 +791,15 @@
       <c r="H2" s="2">
         <v>362</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <f>AVERAGE(C2:G2)</f>
         <v>72.400000000000006</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
+      <c r="J2" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -798,10 +807,10 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>89</v>
@@ -822,15 +831,15 @@
         <f t="shared" ref="H3:H37" si="0">SUM(C3:G3)</f>
         <v>301</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f t="shared" ref="I3:I37" si="1">AVERAGE(C3:G3)</f>
         <v>60.2</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+      <c r="J3" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -838,10 +847,10 @@
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>56</v>
@@ -862,15 +871,15 @@
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>11</v>
+      <c r="J4" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
@@ -878,10 +887,10 @@
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -902,15 +911,15 @@
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="1"/>
         <v>48.4</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
+      <c r="J5" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -918,10 +927,10 @@
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>36</v>
@@ -942,15 +951,15 @@
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>41.6</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
+      <c r="J6" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -958,10 +967,10 @@
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>65</v>
@@ -982,15 +991,15 @@
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
         <v>61.8</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>11</v>
+      <c r="J7" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
@@ -998,10 +1007,10 @@
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>54</v>
@@ -1022,15 +1031,15 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>11</v>
+      <c r="J8" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
@@ -1038,10 +1047,10 @@
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>45</v>
@@ -1062,15 +1071,15 @@
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
+      <c r="J9" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1078,10 +1087,10 @@
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>69</v>
@@ -1102,15 +1111,15 @@
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>46.8</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>11</v>
+      <c r="J10" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
@@ -1118,10 +1127,10 @@
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>70</v>
@@ -1142,15 +1151,15 @@
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>11</v>
+      <c r="J11" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -1158,10 +1167,10 @@
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>56</v>
@@ -1182,15 +1191,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>11</v>
+      <c r="J12" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
@@ -1198,10 +1207,10 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -1222,15 +1231,15 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>11</v>
+      <c r="J13" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
@@ -1238,10 +1247,10 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>54</v>
@@ -1262,15 +1271,15 @@
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>72.2</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>11</v>
+      <c r="J14" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
@@ -1278,10 +1287,10 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <v>78</v>
@@ -1302,15 +1311,15 @@
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>65.2</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>11</v>
+      <c r="J15" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
@@ -1318,10 +1327,10 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>98</v>
@@ -1342,15 +1351,15 @@
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>65.2</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>11</v>
+      <c r="J16" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
@@ -1358,10 +1367,10 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>35</v>
@@ -1382,15 +1391,15 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>49.6</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>11</v>
+      <c r="J17" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
@@ -1398,10 +1407,10 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>62</v>
@@ -1422,15 +1431,15 @@
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>49.8</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>11</v>
+      <c r="J18" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
@@ -1438,10 +1447,10 @@
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>31</v>
@@ -1462,15 +1471,15 @@
         <f t="shared" si="0"/>
         <v>277</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>55.4</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>11</v>
+      <c r="J19" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>24</v>
@@ -1502,15 +1511,15 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>11</v>
+      <c r="J20" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
@@ -1518,10 +1527,10 @@
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>28</v>
@@ -1542,15 +1551,15 @@
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>11</v>
+      <c r="J21" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
@@ -1558,10 +1567,10 @@
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>69</v>
@@ -1582,15 +1591,15 @@
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
+      <c r="J22" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
@@ -1598,10 +1607,10 @@
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2">
         <v>32</v>
@@ -1622,15 +1631,15 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
         <v>52.8</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>11</v>
+      <c r="J23" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
@@ -1638,10 +1647,10 @@
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2">
         <v>65</v>
@@ -1662,15 +1671,15 @@
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>11</v>
+      <c r="J24" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
@@ -1678,10 +1687,10 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>98</v>
@@ -1702,15 +1711,15 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="1"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>11</v>
+      <c r="J25" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
@@ -1718,10 +1727,10 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>65</v>
@@ -1742,15 +1751,15 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>11</v>
+      <c r="J26" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
@@ -1758,10 +1767,10 @@
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2">
         <v>45</v>
@@ -1782,15 +1791,15 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="1"/>
         <v>37.6</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>11</v>
+      <c r="J27" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
@@ -1798,10 +1807,10 @@
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2">
         <v>65</v>
@@ -1822,15 +1831,15 @@
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="1"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>11</v>
+      <c r="J28" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
@@ -1838,10 +1847,10 @@
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2">
         <v>54</v>
@@ -1862,15 +1871,15 @@
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="1"/>
         <v>54.8</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>11</v>
+      <c r="J29" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
@@ -1878,10 +1887,10 @@
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2">
         <v>87</v>
@@ -1902,15 +1911,15 @@
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="1"/>
         <v>62.8</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>11</v>
+      <c r="J30" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
@@ -1918,10 +1927,10 @@
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>98</v>
@@ -1942,15 +1951,15 @@
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="1"/>
         <v>57.8</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>11</v>
+      <c r="J31" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
@@ -1958,10 +1967,10 @@
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2">
         <v>78</v>
@@ -1982,15 +1991,15 @@
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <f t="shared" si="1"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>11</v>
+      <c r="J32" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
@@ -1998,10 +2007,10 @@
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2">
         <v>79</v>
@@ -2022,15 +2031,15 @@
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>11</v>
+      <c r="J33" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
@@ -2038,10 +2047,10 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2">
         <v>25</v>
@@ -2062,15 +2071,15 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f t="shared" si="1"/>
         <v>49.6</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>11</v>
+      <c r="J34" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
@@ -2078,10 +2087,10 @@
     </row>
     <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2">
         <v>18</v>
@@ -2102,15 +2111,15 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f t="shared" si="1"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>11</v>
+      <c r="J35" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
@@ -2118,10 +2127,10 @@
     </row>
     <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <v>26</v>
@@ -2142,15 +2151,15 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>11</v>
+      <c r="J36" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
@@ -2158,10 +2167,10 @@
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2">
         <v>39</v>
@@ -2182,21 +2191,28 @@
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <f t="shared" si="1"/>
         <v>44.2</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>11</v>
+      <c r="J37" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{7B023722-D379-4780-B392-385FF78E6FC3}"/>
+    <hyperlink ref="J5:J37" r:id="rId2" display="ramchouhan@gmail.com" xr:uid="{CEF2BC03-5BA0-4810-B049-CE447AA419CF}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{C50E47A1-5565-4BF0-8BBB-BA3F3CEB0DF6}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{66160E0B-ACC1-421B-AE11-A7AB5F47EB76}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{C4173495-CB5E-4C8B-8678-4F1CC0028B00}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\41 REAL WORLD E-COMMERCE WEBSITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7451E-8444-4B35-B80F-4ACFFBDC03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC9E9A-D08C-4C20-B85E-7DB93CD48A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>RollNo</t>
   </si>
@@ -292,6 +292,30 @@
   </si>
   <si>
     <t>shayamchouhan3456@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr.Ram</t>
+  </si>
+  <si>
+    <t>Mr.Shayam</t>
+  </si>
+  <si>
+    <t>Mr.Sumit</t>
+  </si>
+  <si>
+    <t>Mr.Abhi</t>
+  </si>
+  <si>
+    <t>Mr.Aman</t>
+  </si>
+  <si>
+    <t>Mr.Ravi</t>
+  </si>
+  <si>
+    <t>Mr.Raku</t>
+  </si>
+  <si>
+    <t>Mr.Klrahul</t>
   </si>
 </sst>
 </file>
@@ -710,7 +734,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,26 +798,27 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2">
-        <v>362</v>
+        <f>SUM(C2:G2)</f>
+        <v>450</v>
       </c>
       <c r="I2" s="9">
         <f>AVERAGE(C2:G2)</f>
-        <v>72.400000000000006</v>
+        <v>90</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>84</v>
@@ -839,7 +864,7 @@
         <v>85</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -879,7 +904,7 @@
         <v>83</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
@@ -919,7 +944,7 @@
         <v>86</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -959,7 +984,7 @@
         <v>83</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -999,7 +1024,7 @@
         <v>83</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
@@ -1039,7 +1064,7 @@
         <v>83</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
@@ -1079,7 +1104,7 @@
         <v>83</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1119,7 +1144,7 @@
         <v>83</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
